--- a/data/trans_bre/P32A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P32A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>213,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,91; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 17,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,06%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-2,92; -0,28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 3,86</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-2,02; 3,2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 1,94</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 511,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 519,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 447,43</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,39%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,88; -0,33</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; -0,28</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-3,79; -0,19</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 4,54</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 102,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,01; 11,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,74; 390,35</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,94%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-3,54; 0,81</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; -2,02</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; -0,06</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 4,2</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 249,6</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 144,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-93,99; 616,56</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,15%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,77%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-0,66; 1,51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 0,07</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 3,03</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 0,28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,6; 55,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,66; 426,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,89; 34,67</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,06%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; -0,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; -0,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,11; 2,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,71; -28,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,82; 27,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,38; 75,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>213,4%</t>
+          <t>58,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-19,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-45,39%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 0,0</t>
+          <t>-2,75; -0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 17,67</t>
+          <t>-1,38; 3,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>-2,03; 2,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,0</t>
+          <t>-2,2; 1,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,24 +693,24 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,83; 541,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 393,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 240,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,22 +720,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,17 +745,17 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>-82,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-68,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,06%</t>
+          <t>66,29%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; -0,28</t>
+          <t>-1,88; -0,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 3,86</t>
+          <t>-3,6; -0,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,2</t>
+          <t>-3,79; -0,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,94</t>
+          <t>-0,82; 4,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,24 +793,24 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 511,16</t>
+          <t>-100,0; 102,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 519,51</t>
+          <t>-93,01; 11,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 447,43</t>
+          <t>-45,51; 408,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-69,19%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-82,99%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-68,12%</t>
+          <t>-79,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>-12,28%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,88; -0,33</t>
+          <t>-3,54; 0,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,28</t>
+          <t>-6,01; -2,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,19</t>
+          <t>-3,22; -0,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 4,54</t>
+          <t>-2,85; 2,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 249,6</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 102,92</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-93,01; 11,04</t>
+          <t>-100,0; 144,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-47,74; 390,35</t>
+          <t>-100,0; 336,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-69,19%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-66,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-79,05%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>-56,42%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,81</t>
+          <t>-0,66; 1,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -2,02</t>
+          <t>-3,75; 0,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -0,06</t>
+          <t>-0,76; 3,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,2</t>
+          <t>-3,22; 0,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 249,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,6; 55,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 144,14</t>
+          <t>-48,66; 426,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-93,99; 616,56</t>
+          <t>-86,9; 33,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>-68,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-66,15%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>61,35%</t>
+          <t>-32,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-55,77%</t>
+          <t>-22,18%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,51</t>
+          <t>-1,32; -0,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,07</t>
+          <t>-2,7; -0,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,03</t>
+          <t>-1,46; 0,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,28</t>
+          <t>-1,42; 0,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,11; 2,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-92,6; 55,96</t>
+          <t>-86,71; -28,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 426,72</t>
+          <t>-63,82; 27,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-86,89; 34,67</t>
+          <t>-66,76; 50,51</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-68,99%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-66,08%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-32,38%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-13,06%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,32; -0,13</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; -0,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,46; 0,42</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 1,03</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-92,11; 2,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-86,71; -28,74</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-63,82; 27,84</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-55,38; 75,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P32A-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,75; -0,25</t>
+          <t>-2,79; -0,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 3,98</t>
+          <t>-1,13; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,32</t>
+          <t>-1,94; 2,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,34</t>
+          <t>-2,22; 1,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,83; 541,21</t>
+          <t>-69,33; 613,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 393,19</t>
+          <t>-100,0; 496,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 240,7</t>
+          <t>-100,0; 216,5</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,88; -0,33</t>
+          <t>-1,93; -0,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,28</t>
+          <t>-3,75; -0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; -0,19</t>
+          <t>-3,9; -0,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,67</t>
+          <t>-0,74; 4,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 102,92</t>
+          <t>-100,0; 18,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-93,01; 11,04</t>
+          <t>-100,0; 14,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,51; 408,11</t>
+          <t>-43,16; 472,41</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,81</t>
+          <t>-3,42; 1,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -2,02</t>
+          <t>-5,83; -1,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,22; -0,06</t>
+          <t>-3,16; 0,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 2,62</t>
+          <t>-2,44; 2,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 249,6</t>
+          <t>-100,0; 159,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 144,14</t>
+          <t>-100,0; inf</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 336,86</t>
+          <t>-100,0; 481,75</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,51</t>
+          <t>-0,66; 1,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 0,07</t>
+          <t>-3,74; -0,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,03</t>
+          <t>-0,77; 3,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,29</t>
+          <t>-3,27; 0,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-92,6; 55,96</t>
+          <t>-91,61; 33,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,66; 426,72</t>
+          <t>-51,9; 350,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-86,9; 33,02</t>
+          <t>-84,12; 31,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,13</t>
+          <t>-1,33; -0,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,74</t>
+          <t>-2,57; -0,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,42</t>
+          <t>-1,55; 0,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,75</t>
+          <t>-1,36; 0,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-92,11; 2,66</t>
+          <t>-92,29; -2,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-86,71; -28,74</t>
+          <t>-86,49; -29,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 27,84</t>
+          <t>-65,7; 24,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 50,51</t>
+          <t>-67,47; 53,64</t>
         </is>
       </c>
     </row>
